--- a/TechnicalTest/Tests/TechnicalTest.Tests/Data/ExcelReport.xlsx
+++ b/TechnicalTest/Tests/TechnicalTest.Tests/Data/ExcelReport.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INTERVIEWS\ICBC\TechnicalTest\TechnicalTest\Tests\TechnicalTest.Tests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D457D18D-EFCB-4571-A1C6-42AB0500CF73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77024E7D-0E15-464C-BC19-30A4F6B2DD8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WithNoUserDefinedIndex" sheetId="3" r:id="rId1"/>
-    <sheet name="F 20.04" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="WithRowsIndexOnTheRight" sheetId="4" r:id="rId2"/>
+    <sheet name="F 20.04" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="31">
   <si>
     <t/>
   </si>
@@ -747,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EBC308-7CF0-4121-919A-82ADE31DB0ED}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1167,6 +1168,449 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3F1AC0-78BE-4A00-BDB7-F6AA33490268}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="89.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="52.5">
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31.5">
+      <c r="A9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="21">
+      <c r="A11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="42">
+      <c r="A12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -1607,7 +2051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE12BD2-4132-45CA-97F9-7C35C0977AFD}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/TechnicalTest/Tests/TechnicalTest.Tests/Data/ExcelReport.xlsx
+++ b/TechnicalTest/Tests/TechnicalTest.Tests/Data/ExcelReport.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INTERVIEWS\ICBC\TechnicalTest\TechnicalTest\Tests\TechnicalTest.Tests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77024E7D-0E15-464C-BC19-30A4F6B2DD8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB658888-5BA2-427F-B437-6E80D4B0D13F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WithNoUserDefinedIndex" sheetId="3" r:id="rId1"/>
     <sheet name="WithRowsIndexOnTheRight" sheetId="4" r:id="rId2"/>
     <sheet name="F 20.04" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="EMPTY" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="30">
   <si>
     <t/>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Annex V.Part 1.42(c)</t>
-  </si>
-  <si>
-    <t>VV</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3F1AC0-78BE-4A00-BDB7-F6AA33490268}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2055,18 +2052,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE12BD2-4132-45CA-97F9-7C35C0977AFD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>